--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1096762.583689739</v>
+        <v>1129340.798204939</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8702058.764714345</v>
+        <v>8702058.764714343</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.1101224634645</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>69.07899072214047</v>
+        <v>29.69481215224323</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>50.84530204350681</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>97.78080237306352</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1260,13 +1262,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>48.627569740509</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>33.93761150926061</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.919023869900165</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>159.8926002746995</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1512,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>48.37669028362031</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>362.4150396299759</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>66.23167121454985</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1695,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>91.6867458199809</v>
+        <v>75.40129479929556</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>110.9705324835873</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.889549819912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>222.5722992462828</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1929,16 +1931,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>76.32943916025816</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>84.48745916175818</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571424</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.58673470997152</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>50.39085407108831</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>157.4216560423432</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>94.10696628451491</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2169,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>78.30557825330763</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2239,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>114.7943575370071</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>247.3328093532986</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="S24" t="n">
-        <v>29.38391736390425</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>86.58819153171414</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>54.44663919424258</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>79.15786670598614</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>207.9316113046338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2646,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>107.2798535285401</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5887103733622</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>198.6242734862828</v>
+        <v>204.1871978251503</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2925,7 +2927,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.9357482121867</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.812045700447321</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>232.0095242284297</v>
+        <v>22.33687347832846</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>96.12861729281047</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>30.67791780459116</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>45.09111935667098</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>19.09105873982274</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>22.91471389864773</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3363,7 +3365,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>95.62025615464796</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>162.3083647370542</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.0302993558349</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.0248783365585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>132.1315286210407</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3591,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3636,7 +3638,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>172.5161931289813</v>
+        <v>180.8912685137303</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>44.43601816396536</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>34.28709292221073</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.2870929222108</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>181.2558810106748</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3565097727589</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>106.104590404713</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>90.0384386340216</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22.91471389864773</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4074,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E2" t="n">
         <v>41.68395448076474</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>285.1327311248648</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.787934186969</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
         <v>110.334904905842</v>
@@ -4413,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>492.6394343925018</v>
+        <v>832.8928663137813</v>
       </c>
       <c r="X3" t="n">
-        <v>284.787934186969</v>
+        <v>625.0413661082484</v>
       </c>
       <c r="Y3" t="n">
-        <v>284.787934186969</v>
+        <v>417.2810673432945</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4522,16 +4524,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4595,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502.6601697108322</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C6" t="n">
-        <v>328.2071404297052</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>912.698264557599</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>710.511669916365</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="U6" t="n">
-        <v>710.511669916365</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="V6" t="n">
-        <v>710.511669916365</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="W6" t="n">
-        <v>710.511669916365</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="X6" t="n">
-        <v>502.6601697108322</v>
+        <v>590.7017942686721</v>
       </c>
       <c r="Y6" t="n">
-        <v>502.6601697108322</v>
+        <v>382.9414955037181</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4838,16 +4840,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X8" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="W8" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="X8" t="n">
-        <v>467.067986854209</v>
-      </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.787934186969</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4887,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>813.7688687498764</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>813.7688687498764</v>
       </c>
       <c r="U9" t="n">
-        <v>453.003271207037</v>
+        <v>813.7688687498764</v>
       </c>
       <c r="V9" t="n">
-        <v>453.003271207037</v>
+        <v>813.7688687498764</v>
       </c>
       <c r="W9" t="n">
-        <v>453.003271207037</v>
+        <v>813.7688687498764</v>
       </c>
       <c r="X9" t="n">
-        <v>453.003271207037</v>
+        <v>605.9173685443436</v>
       </c>
       <c r="Y9" t="n">
-        <v>453.003271207037</v>
+        <v>398.1570697793896</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1371.839859437666</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C11" t="n">
-        <v>1371.839859437666</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D11" t="n">
-        <v>1371.839859437666</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E11" t="n">
         <v>1371.839859437666</v>
@@ -5042,7 +5044,7 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L11" t="n">
         <v>762.591673824455</v>
@@ -5069,22 +5071,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2114.747846683592</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1761.979191413478</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1761.979191413478</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1371.839859437666</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>881.8450797407235</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>707.3920504595965</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5118,16 +5120,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.242145037065</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1955.061680691222</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1719.90957245948</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.672215731278</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1257.820715525745</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y12" t="n">
-        <v>1050.060416760791</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5200,7 +5202,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1159.911464587051</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C14" t="n">
-        <v>790.948947646639</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D14" t="n">
-        <v>432.6832490398886</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F14" t="n">
         <v>46.89499644164432</v>
@@ -5279,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1546.511304651172</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1546.511304651172</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1546.511304651172</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622.1327649551154</v>
+        <v>850.7918407605284</v>
       </c>
       <c r="C15" t="n">
-        <v>447.6797356739884</v>
+        <v>676.3388114794014</v>
       </c>
       <c r="D15" t="n">
-        <v>298.7453260127371</v>
+        <v>527.4044018181502</v>
       </c>
       <c r="E15" t="n">
-        <v>139.5078710072816</v>
+        <v>368.1669468126947</v>
       </c>
       <c r="F15" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
         <v>46.89499644164432</v>
@@ -5355,52 +5357,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5455,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>102.3180182963936</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.3180182963936</v>
+        <v>158.9864433947628</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>767.4026914201181</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5516,13 +5518,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5540,25 +5542,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1917.607621721131</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>1154.00253148424</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E18" t="n">
-        <v>298.7453260127371</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F18" t="n">
-        <v>298.7453260127371</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5592,22 +5594,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
         <v>2344.749822082216</v>
@@ -5616,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5694,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>336.0761416957212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>336.0761416957212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1751.301304452715</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="C20" t="n">
-        <v>1751.301304452715</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D20" t="n">
-        <v>1751.301304452715</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E20" t="n">
-        <v>1365.51305185447</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F20" t="n">
-        <v>954.5271470648629</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>536.2553795477477</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>205.906770221789</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5780,22 +5782,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>2124.767062713795</v>
+        <v>2249.692280380686</v>
       </c>
       <c r="V20" t="n">
-        <v>2124.767062713795</v>
+        <v>1918.629393037116</v>
       </c>
       <c r="W20" t="n">
-        <v>2124.767062713795</v>
+        <v>1565.860737767001</v>
       </c>
       <c r="X20" t="n">
-        <v>1751.301304452715</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="Y20" t="n">
-        <v>1751.301304452715</v>
+        <v>1192.394979505922</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>459.978881112182</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>300.7414261067265</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>300.7414261067265</v>
       </c>
       <c r="G21" t="n">
         <v>221.6448824165167</v>
@@ -5829,25 +5831,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5856,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U21" t="n">
-        <v>1923.529830251457</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C22" t="n">
-        <v>2228.795925580189</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D22" t="n">
-        <v>2078.679286167853</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E22" t="n">
-        <v>1930.76619258546</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
         <v>1783.87624508755</v>
@@ -5947,13 +5949,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W22" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X22" t="n">
-        <v>2344.749822082216</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y22" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2344.749822082216</v>
+        <v>1958.149982018095</v>
       </c>
       <c r="C23" t="n">
-        <v>2115.893810642661</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.628112035911</v>
+        <v>1339.356344518795</v>
       </c>
       <c r="E23" t="n">
-        <v>1371.839859437666</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
         <v>542.5821871309436</v>
@@ -5987,13 +5989,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6066,19 +6068,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
         <v>2039.343247810003</v>
@@ -6090,7 +6092,7 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="S24" t="n">
         <v>2315.069097472212</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>2021.45570422889</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1871.339064816554</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U25" t="n">
-        <v>2190.391887156797</v>
+        <v>101.891601688354</v>
       </c>
       <c r="V25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2013.686934738646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C26" t="n">
-        <v>1644.724417798234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D26" t="n">
-        <v>1286.458719191483</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E26" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6227,10 +6229,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6254,22 +6256,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2134.717891471475</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>1880.931469356342</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>1549.868582012772</v>
       </c>
       <c r="W26" t="n">
-        <v>2013.686934738646</v>
+        <v>1197.099926742658</v>
       </c>
       <c r="X26" t="n">
-        <v>2013.686934738646</v>
+        <v>823.6341684815778</v>
       </c>
       <c r="Y26" t="n">
-        <v>2013.686934738646</v>
+        <v>433.4948365057661</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.1634746939509</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C27" t="n">
-        <v>746.7104454128239</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D27" t="n">
-        <v>597.7760357515726</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6303,22 +6305,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P27" t="n">
         <v>2193.291384540003</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1894.892063851584</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V27" t="n">
-        <v>1659.739955619841</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W27" t="n">
-        <v>1405.50259889164</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X27" t="n">
-        <v>1297.139110478973</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y27" t="n">
-        <v>1089.378811714019</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6385,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200978</v>
@@ -6415,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>318.5874281822333</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.5874281822333</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C29" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D29" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E29" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F29" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6461,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082217</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2144.119242803143</v>
+        <v>1880.931469356342</v>
       </c>
       <c r="U29" t="n">
-        <v>1890.332820688011</v>
+        <v>1880.931469356342</v>
       </c>
       <c r="V29" t="n">
-        <v>1559.26993334444</v>
+        <v>1549.868582012772</v>
       </c>
       <c r="W29" t="n">
-        <v>1206.501278074326</v>
+        <v>1197.099926742658</v>
       </c>
       <c r="X29" t="n">
-        <v>1206.501278074326</v>
+        <v>823.6341684815778</v>
       </c>
       <c r="Y29" t="n">
-        <v>1206.501278074326</v>
+        <v>433.4948365057661</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,22 +6545,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6573,19 +6575,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>210.7322113409051</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>51.75564866431839</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6622,7 +6624,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
         <v>194.9121237200978</v>
@@ -6661,10 +6663,10 @@
         <v>379.8701515943957</v>
       </c>
       <c r="X31" t="n">
-        <v>151.8806006963783</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8806006963783</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1991.981166812102</v>
+        <v>1738.167222649673</v>
       </c>
       <c r="C32" t="n">
-        <v>1991.981166812102</v>
+        <v>1369.204705709261</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.628112035911</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E32" t="n">
-        <v>1371.839859437666</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F32" t="n">
         <v>960.8539546480588</v>
@@ -6701,10 +6703,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376119</v>
@@ -6728,22 +6730,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812102</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.981166812102</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y32" t="n">
-        <v>1991.981166812102</v>
+        <v>2124.767062713795</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6780,49 +6782,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>355.9881985305668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
         <v>46.89499644164432</v>
@@ -6859,7 +6861,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
         <v>194.9121237200978</v>
@@ -6886,22 +6888,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>386.9759942927801</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1212.631670769908</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="C35" t="n">
-        <v>843.6691538294961</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="D35" t="n">
-        <v>843.6691538294961</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="E35" t="n">
-        <v>457.8809012312519</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>92.4415816504029</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6968,19 +6970,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2325.465924365224</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>2325.465924365224</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W35" t="n">
-        <v>1972.697269095109</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X35" t="n">
-        <v>1599.231510834029</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y35" t="n">
-        <v>1599.231510834029</v>
+        <v>897.3131892316399</v>
       </c>
     </row>
     <row r="36">
@@ -7017,7 +7019,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
         <v>705.6153558007836</v>
@@ -7026,40 +7028,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1826.94371292353</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>70.1579250839018</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1989.169136893773</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.206619953362</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7172,10 +7174,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
         <v>762.591673824455</v>
@@ -7202,22 +7204,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2211.283631555913</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="V38" t="n">
-        <v>2344.749822082216</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.749822082216</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.749822082216</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="Y38" t="n">
-        <v>2344.749822082216</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>676.0544483625931</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C39" t="n">
-        <v>501.6014190814661</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D39" t="n">
-        <v>352.6670094202149</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E39" t="n">
-        <v>193.4295544147594</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G39" t="n">
         <v>46.89499644164432</v>
@@ -7254,22 +7256,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7284,19 +7286,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1749.271049313092</v>
+        <v>1740.811377207285</v>
       </c>
       <c r="V39" t="n">
-        <v>1514.118941081349</v>
+        <v>1505.659268975542</v>
       </c>
       <c r="W39" t="n">
-        <v>1259.881584353148</v>
+        <v>1251.421912247341</v>
       </c>
       <c r="X39" t="n">
-        <v>1052.030084147615</v>
+        <v>1043.570412041808</v>
       </c>
       <c r="Y39" t="n">
-        <v>844.2697853826612</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E40" t="n">
-        <v>2303.765562347826</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F40" t="n">
-        <v>2156.875614849916</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G40" t="n">
-        <v>1987.737674596425</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H40" t="n">
-        <v>1828.761111919838</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>825.5823748407913</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>467.3166762340408</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>81.52842363579657</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>81.52842363579657</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2310.116394888064</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2310.116394888064</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2310.116394888064</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>2310.116394888064</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>2310.116394888064</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>2310.116394888064</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>1936.650636626984</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y41" t="n">
-        <v>1546.511304651172</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7515,16 +7517,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W42" t="n">
         <v>1572.706356195328</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>215.8311793695513</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>2138.758986819787</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.479644199791</v>
+        <v>2303.765562347826</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>465.1667639587595</v>
+        <v>934.0197721158181</v>
       </c>
       <c r="C44" t="n">
-        <v>465.1667639587595</v>
+        <v>565.0572551754065</v>
       </c>
       <c r="D44" t="n">
-        <v>465.1667639587595</v>
+        <v>565.0572551754065</v>
       </c>
       <c r="E44" t="n">
-        <v>465.1667639587595</v>
+        <v>565.0572551754065</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>154.0713503857989</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7646,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7675,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W44" t="n">
-        <v>929.5804400319823</v>
+        <v>1697.62486235271</v>
       </c>
       <c r="X44" t="n">
-        <v>556.1146817709025</v>
+        <v>1324.15910409163</v>
       </c>
       <c r="Y44" t="n">
-        <v>465.1667639587595</v>
+        <v>934.0197721158181</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7734,16 +7736,16 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7755,22 +7757,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T45" t="n">
-        <v>2145.207124136247</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U45" t="n">
-        <v>1917.026659790404</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V45" t="n">
-        <v>1681.874551558662</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W45" t="n">
-        <v>1427.63719483046</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X45" t="n">
-        <v>1219.785694624927</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.025395859973</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9014378473433</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>57.0889669861391</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>214.8846069991543</v>
+        <v>307.2673352605755</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>330.2893092338458</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10193,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10430,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
-        <v>214.8846069991543</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>317.8332346002347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>37.65467069181011</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23400,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
     </row>
     <row r="13">
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.857852141031628</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>283.0092975028631</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>53.38246657340298</v>
+        <v>69.66791759408832</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>68.86144769835001</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,10 +23673,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1410289771301</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264.8442918435686</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>191.5167505956612</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23817,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>60.36469784837671</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>21.47633989765124</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23932,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>138.942133518969</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>236.1321442655027</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>6.263539507363959</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>157.1415916094663</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24057,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>58.38855875532724</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24096,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>52.45246356162069</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530034</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>107.3502322673843</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24303,7 +24305,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749141</v>
+        <v>30.45538403358717</v>
       </c>
       <c r="S24" t="n">
-        <v>130.237302184546</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>59.84577111485503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>197.6910041295854</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>302.7725033662757</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>9.851320470103616</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24534,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>98.49313167493735</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>55.65811072526559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24618,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
@@ -24655,7 +24657,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>68.86144769834999</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>19.15865828845463</v>
+        <v>13.59573394958713</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
@@ -24777,7 +24779,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.89623196975063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288915</v>
+        <v>134.2662799284442</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>122.6735173922533</v>
+        <v>332.3461681423545</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>76.57988169550526</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>136.5689032940367</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
@@ -25126,10 +25128,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>182.3535855893494</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>281.9540038760281</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -25208,10 +25210,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>232.1574991541585</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>130.2784035477364</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>17.52361544488306</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>31.8384922803669</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.70896332692212</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>85.65140315369672</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>53.38246657340306</v>
+        <v>45.007391188654</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555773</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>94.64230746492618</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>379.8019569197332</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>39.34271671785032</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25755,19 +25757,19 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>70.43910215024479</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>4.090051078196694</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>307.984459437231</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.199500022032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,7 +25997,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669349.724915457</v>
+        <v>669349.7249154567</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>669349.724915457</v>
+        <v>669349.7249154567</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669349.7249154567</v>
+        <v>669349.7249154571</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>669349.7249154566</v>
+        <v>669349.724915457</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669349.7249154566</v>
+        <v>669349.724915457</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669349.7249154568</v>
+        <v>669349.7249154566</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>669349.724915457</v>
+        <v>669349.7249154567</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669349.7249154567</v>
+        <v>669349.724915457</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>669349.7249154567</v>
+        <v>669349.7249154565</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="F2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="G2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="H2" t="n">
         <v>317251.3197170585</v>
       </c>
-      <c r="F2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="G2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="H2" t="n">
-        <v>317251.3197170584</v>
-      </c>
       <c r="I2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="J2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="K2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="L2" t="n">
         <v>317251.3197170583</v>
       </c>
-      <c r="L2" t="n">
-        <v>317251.3197170584</v>
-      </c>
       <c r="M2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="N2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170583</v>
       </c>
       <c r="O2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="P2" t="n">
-        <v>317251.3197170586</v>
+        <v>317251.3197170584</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.53382007599</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337698.1101336325</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
         <v>337698.1101336324</v>
@@ -26424,37 +26426,37 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="F4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="G4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="H4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="I4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="J4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="K4" t="n">
         <v>61729.84584348263</v>
       </c>
       <c r="L4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="M4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="N4" t="n">
-        <v>61729.84584348261</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="O4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="P4" t="n">
         <v>61729.84584348262</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25876.251489628</v>
+        <v>25876.25148962817</v>
       </c>
       <c r="C6" t="n">
         <v>106645.6830211758</v>
       </c>
       <c r="D6" t="n">
-        <v>106645.6830211757</v>
+        <v>106645.6830211758</v>
       </c>
       <c r="E6" t="n">
-        <v>-132312.5910308234</v>
+        <v>-132312.5910308235</v>
       </c>
       <c r="F6" t="n">
-        <v>213299.7517481293</v>
+        <v>213299.7517481294</v>
       </c>
       <c r="G6" t="n">
-        <v>213299.7517481293</v>
+        <v>213299.7517481294</v>
       </c>
       <c r="H6" t="n">
         <v>213299.7517481293</v>
       </c>
       <c r="I6" t="n">
-        <v>213299.7517481293</v>
+        <v>213299.7517481294</v>
       </c>
       <c r="J6" t="n">
         <v>150239.809149023</v>
       </c>
       <c r="K6" t="n">
+        <v>213299.7517481294</v>
+      </c>
+      <c r="L6" t="n">
         <v>213299.7517481291</v>
       </c>
-      <c r="L6" t="n">
-        <v>213299.7517481293</v>
-      </c>
       <c r="M6" t="n">
-        <v>127281.2179280532</v>
+        <v>127281.2179280534</v>
       </c>
       <c r="N6" t="n">
-        <v>213299.7517481293</v>
+        <v>213299.7517481291</v>
       </c>
       <c r="O6" t="n">
         <v>213299.7517481292</v>
       </c>
       <c r="P6" t="n">
-        <v>213299.7517481294</v>
+        <v>213299.7517481293</v>
       </c>
     </row>
   </sheetData>
@@ -26744,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.5729191572185</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27421,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>179.6244982918734</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>182.6159924387791</v>
+        <v>222.0001710086764</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>345.7144348824455</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>120.837869060331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>102.3839263217581</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27758,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>264.2850375838066</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5329255313623</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27947,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>123.0556013633288</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>192.0037705717142</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31756,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32014,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32084,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L25" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32964,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33034,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H28" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L28" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N28" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33199,22 +33201,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
@@ -33269,25 +33271,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T30" t="n">
         <v>2.617457728311981</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H31" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L31" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N31" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R31" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T31" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33436,22 +33438,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
@@ -33506,25 +33508,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T33" t="n">
         <v>2.617457728311981</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H34" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L34" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N34" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R34" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T34" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33675,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33745,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H37" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L37" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N37" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T37" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,10 +35500,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35659,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,13 +35740,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>91.93015837125802</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35978,7 +35980,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
-        <v>217.3283173608304</v>
+        <v>309.7110456222515</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36212,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36449,7 +36451,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36609,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36686,10 +36688,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q27" t="n">
         <v>152.98832074971</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
@@ -36844,13 +36846,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36923,13 +36925,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M31" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
@@ -37081,13 +37083,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
-        <v>217.3283173608304</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37160,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M34" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37320,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38032,7 +38034,7 @@
         <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
-        <v>265.0955169306801</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
         <v>121.0739155037674</v>
@@ -38102,10 +38104,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129340.798204939</v>
+        <v>1087517.016535932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584669</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.1101224634645</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>115.6152987447392</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -788,7 +788,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>29.69481215224323</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.21593518981624</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>51.9609193541578</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>97.78080237306352</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815378</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>48.627569740509</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>206.6856389338103</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>166.866253381185</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>56.3131767140669</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
@@ -1469,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.37669028362031</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>13.87222205719629</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>362.4150396299759</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>71.59362474574012</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>75.40129479929556</v>
+        <v>14.83191020883758</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.457770362044799</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>22.44449568224875</v>
       </c>
       <c r="G17" t="n">
-        <v>222.5722992462828</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>84.48745916175818</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -2061,16 +2061,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>50.39085407108831</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>16.83786409935511</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>163.5736621411588</v>
       </c>
       <c r="U20" t="n">
-        <v>94.10696628451491</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G21" t="n">
-        <v>78.30557825330763</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>190.4768602067905</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>247.3328093532986</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>120.4097828166765</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.38391736390425</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V25" t="n">
-        <v>54.44663919424258</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>207.9316113046338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>343.3911249456302</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>113.1507170764644</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2690,7 +2690,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>46.69945195463509</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>156.8482076906872</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>351.8251894796512</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>204.1871978251503</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>67.30996878196338</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.812045700447321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>31.31978223658552</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22.33687347832846</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>273.7371709321287</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>96.12861729281047</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3128,7 +3128,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.85045672036978</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.9039928138414</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>323.4459653740329</v>
       </c>
       <c r="H35" t="n">
-        <v>45.09111935667098</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.91471389864773</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3362,10 +3362,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>35.82205612034655</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>162.3083647370542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>89.14352724124581</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>132.1315286210407</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>151.2100185652205</v>
       </c>
     </row>
     <row r="39">
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3638,7 +3638,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>180.8912685137303</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>85.01043530101144</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>187.9216174196134</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34.28709292221073</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>48.32826783034387</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3875,13 +3875,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>66.55239406957189</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>181.2558810106748</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3897,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.289243007175619</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3565097727589</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>106.104590404713</v>
+        <v>352.8609582037051</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>120.9673892710046</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.2545797368263</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8134234192865</v>
+        <v>150.3128423247259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D2" t="n">
-        <v>285.1327311248648</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y2" t="n">
-        <v>499.3853800778592</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.0657303232264</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C3" t="n">
-        <v>249.0657303232264</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>249.0657303232264</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>249.0657303232264</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4418,7 +4418,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W3" t="n">
-        <v>832.8928663137813</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X3" t="n">
-        <v>625.0413661082484</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y3" t="n">
-        <v>417.2810673432945</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="4">
@@ -4470,25 +4470,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.33569644483418</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>90.33569644483418</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>90.33569644483418</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>333.7844730889342</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>333.7844730889342</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>90.33569644483418</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.33569644483418</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.9414955037181</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C6" t="n">
-        <v>382.9414955037181</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>911.5713783852243</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>738.1540338358932</v>
       </c>
       <c r="T6" t="n">
-        <v>590.7017942686721</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="U6" t="n">
-        <v>590.7017942686721</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="V6" t="n">
-        <v>590.7017942686721</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="W6" t="n">
-        <v>590.7017942686721</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="X6" t="n">
-        <v>590.7017942686721</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="Y6" t="n">
-        <v>382.9414955037181</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>398.1570697793896</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
         <v>223.7040404982626</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>813.7688687498764</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>813.7688687498764</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>813.7688687498764</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V9" t="n">
-        <v>813.7688687498764</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W9" t="n">
-        <v>813.7688687498764</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>605.9173685443436</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>398.1570697793896</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1360.946750598028</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>991.984233657616</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>633.7185350508655</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>633.7185350508655</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>633.7185350508655</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>215.4467675337503</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5044,10 +5044,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1734.412508859107</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1360.946750598028</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1360.946750598028</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5132,10 +5132,10 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
         <v>2193.291384540003</v>
@@ -5144,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.95990094567</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5220,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>350.0884872080407</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.010650042283</v>
+        <v>895.7492552379747</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.934852436247</v>
+        <v>895.7492552379747</v>
       </c>
       <c r="D14" t="n">
-        <v>843.6691538294961</v>
+        <v>537.4835566312242</v>
       </c>
       <c r="E14" t="n">
-        <v>457.8809012312519</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
         <v>46.89499644164432</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.610490106405</v>
+        <v>1282.349095302096</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>850.7918407605284</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C15" t="n">
-        <v>676.3388114794014</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D15" t="n">
-        <v>527.4044018181502</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1669468126947</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F15" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G15" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
         <v>46.89499644164432</v>
@@ -5357,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X16" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.9864433947628</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>767.4026914201181</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="C17" t="n">
-        <v>767.4026914201181</v>
+        <v>818.1865810445654</v>
       </c>
       <c r="D17" t="n">
-        <v>767.4026914201181</v>
+        <v>818.1865810445654</v>
       </c>
       <c r="E17" t="n">
-        <v>767.4026914201181</v>
+        <v>818.1865810445654</v>
       </c>
       <c r="F17" t="n">
-        <v>767.4026914201181</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5518,13 +5518,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U17" t="n">
-        <v>2270.376276991246</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V17" t="n">
-        <v>2270.376276991246</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W17" t="n">
-        <v>1917.607621721131</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="X17" t="n">
-        <v>1544.141863460052</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="Y17" t="n">
-        <v>1154.00253148424</v>
+        <v>1187.149097984977</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>682.5765037404603</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C18" t="n">
-        <v>508.1234744593334</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D18" t="n">
-        <v>359.1890647980821</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E18" t="n">
-        <v>199.9516097926266</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F18" t="n">
-        <v>199.9516097926266</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G18" t="n">
-        <v>199.9516097926266</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5597,16 +5597,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O18" t="n">
         <v>2039.343247810003</v>
@@ -5618,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1983.973569036802</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U18" t="n">
-        <v>1755.793104690959</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V18" t="n">
-        <v>1520.640996459217</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W18" t="n">
-        <v>1266.403639731015</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X18" t="n">
-        <v>1058.552139525482</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y18" t="n">
-        <v>850.7918407605284</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="19">
@@ -5709,13 +5709,13 @@
         <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>318.5874281822333</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W19" t="n">
-        <v>267.6875755851744</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X19" t="n">
-        <v>267.6875755851744</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.394979505922</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="C20" t="n">
-        <v>823.4324625655099</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="D20" t="n">
         <v>465.1667639587595</v>
@@ -5752,13 +5752,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5782,22 +5782,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>2179.52390072751</v>
       </c>
       <c r="U20" t="n">
-        <v>2249.692280380686</v>
+        <v>1925.737478612378</v>
       </c>
       <c r="V20" t="n">
-        <v>1918.629393037116</v>
+        <v>1594.674591268807</v>
       </c>
       <c r="W20" t="n">
-        <v>1565.860737767001</v>
+        <v>1241.905935998693</v>
       </c>
       <c r="X20" t="n">
-        <v>1192.394979505922</v>
+        <v>1241.905935998693</v>
       </c>
       <c r="Y20" t="n">
-        <v>1192.394979505922</v>
+        <v>851.7666040228812</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>783.3663200545602</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>608.9132907734332</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>459.978881112182</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>300.7414261067265</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F21" t="n">
-        <v>300.7414261067265</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5834,22 +5834,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5858,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>951.5816570746283</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>415.3677045405622</v>
       </c>
       <c r="X22" t="n">
-        <v>1827.343101147238</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="Y22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1958.149982018095</v>
+        <v>895.7492552379747</v>
       </c>
       <c r="C23" t="n">
-        <v>1589.187465077683</v>
+        <v>526.786738297563</v>
       </c>
       <c r="D23" t="n">
-        <v>1339.356344518795</v>
+        <v>168.5210396908125</v>
       </c>
       <c r="E23" t="n">
-        <v>953.5680919205511</v>
+        <v>168.5210396908125</v>
       </c>
       <c r="F23" t="n">
-        <v>542.5821871309436</v>
+        <v>168.5210396908125</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G24" t="n">
         <v>46.89499644164432</v>
@@ -6068,52 +6068,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2315.069097472212</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.069097472212</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6174,16 +6174,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>101.891601688354</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V25" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W25" t="n">
         <v>46.89499644164432</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.89499644164432</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C26" t="n">
-        <v>46.89499644164432</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D26" t="n">
-        <v>46.89499644164432</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E26" t="n">
         <v>46.89499644164432</v>
@@ -6226,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2134.717891471475</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>1880.931469356342</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V26" t="n">
-        <v>1549.868582012772</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W26" t="n">
-        <v>1197.099926742658</v>
+        <v>1923.516554823942</v>
       </c>
       <c r="X26" t="n">
-        <v>823.6341684815778</v>
+        <v>1550.050796562862</v>
       </c>
       <c r="Y26" t="n">
-        <v>433.4948365057661</v>
+        <v>1159.911464587051</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6338,19 +6338,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>844.2697853826612</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>240.9561075300952</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>240.9561075300952</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>94.06616003218483</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>94.06616003218483</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6411,25 +6411,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="X28" t="n">
-        <v>449.3360404154141</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="Y28" t="n">
-        <v>228.543461271884</v>
+        <v>391.0727469424309</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.89499644164432</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C29" t="n">
-        <v>46.89499644164432</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>813.2598805036268</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>402.2739757140193</v>
       </c>
       <c r="G29" t="n">
         <v>46.89499644164432</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1880.931469356342</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1880.931469356342</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1549.868582012772</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>1197.099926742658</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X29" t="n">
-        <v>823.6341684815778</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y29" t="n">
-        <v>433.4948365057661</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.0544483625931</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C30" t="n">
-        <v>501.6014190814661</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D30" t="n">
-        <v>352.6670094202149</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147594</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.884863898173</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U30" t="n">
-        <v>1749.271049313092</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.118941081349</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.881584353148</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.030084147615</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.2697853826612</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.8701515943957</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C31" t="n">
-        <v>379.8701515943957</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D31" t="n">
-        <v>379.8701515943957</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8701515943957</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F31" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>210.7322113409051</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>51.75564866431839</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6645,28 +6645,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>421.774494837572</v>
       </c>
       <c r="T31" t="n">
-        <v>379.8701515943957</v>
+        <v>421.774494837572</v>
       </c>
       <c r="U31" t="n">
-        <v>379.8701515943957</v>
+        <v>421.774494837572</v>
       </c>
       <c r="V31" t="n">
-        <v>379.8701515943957</v>
+        <v>421.774494837572</v>
       </c>
       <c r="W31" t="n">
-        <v>379.8701515943957</v>
+        <v>421.774494837572</v>
       </c>
       <c r="X31" t="n">
-        <v>379.8701515943957</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.8701515943957</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1738.167222649673</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C32" t="n">
-        <v>1369.204705709261</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="D32" t="n">
-        <v>1346.642207246303</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="E32" t="n">
-        <v>960.8539546480588</v>
+        <v>734.3830940919879</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480588</v>
+        <v>323.3971893023804</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W32" t="n">
-        <v>2124.767062713795</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X32" t="n">
-        <v>2124.767062713795</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y32" t="n">
-        <v>2124.767062713795</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>843.8100588399052</v>
+        <v>680.7073555380667</v>
       </c>
       <c r="C33" t="n">
-        <v>746.7104454128239</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="D33" t="n">
-        <v>597.7760357515726</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E33" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6803,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2342.880673879823</v>
       </c>
       <c r="S33" t="n">
-        <v>2344.749822082216</v>
+        <v>2181.647118780378</v>
       </c>
       <c r="T33" t="n">
-        <v>2145.207124136247</v>
+        <v>1982.104420834408</v>
       </c>
       <c r="U33" t="n">
-        <v>1917.026659790404</v>
+        <v>1753.923956488566</v>
       </c>
       <c r="V33" t="n">
-        <v>1681.874551558662</v>
+        <v>1518.771848256823</v>
       </c>
       <c r="W33" t="n">
-        <v>1427.63719483046</v>
+        <v>1264.534491528621</v>
       </c>
       <c r="X33" t="n">
-        <v>1219.785694624927</v>
+        <v>1056.682991323089</v>
       </c>
       <c r="Y33" t="n">
-        <v>1012.025395859973</v>
+        <v>848.9226925581347</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>209.4242821121912</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>209.4242821121912</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>209.4242821121912</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>209.4242821121912</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>209.4242821121912</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164432</v>
@@ -6885,25 +6885,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U34" t="n">
-        <v>90.68900634031877</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V34" t="n">
-        <v>90.68900634031877</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W34" t="n">
-        <v>90.68900634031877</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424309</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>510.7133491675181</v>
+        <v>759.3963453772956</v>
       </c>
       <c r="C35" t="n">
-        <v>510.7133491675181</v>
+        <v>759.3963453772956</v>
       </c>
       <c r="D35" t="n">
-        <v>510.7133491675181</v>
+        <v>759.3963453772956</v>
       </c>
       <c r="E35" t="n">
-        <v>510.7133491675181</v>
+        <v>373.6080927790513</v>
       </c>
       <c r="F35" t="n">
-        <v>510.7133491675181</v>
+        <v>373.6080927790513</v>
       </c>
       <c r="G35" t="n">
-        <v>92.4415816504029</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6937,13 +6937,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V35" t="n">
-        <v>2013.686934738646</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W35" t="n">
-        <v>1660.918279468531</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="X35" t="n">
-        <v>1287.452521207452</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="Y35" t="n">
-        <v>897.3131892316399</v>
+        <v>1145.996185441417</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7040,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1917.026659790404</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V36" t="n">
-        <v>1681.874551558662</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W36" t="n">
-        <v>1427.63719483046</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X36" t="n">
-        <v>1219.785694624927</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y36" t="n">
-        <v>1012.025395859973</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215.8311793695513</v>
+        <v>136.9389633519936</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>136.9389633519936</v>
       </c>
       <c r="D37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X37" t="n">
-        <v>379.7790225382929</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.7790225382929</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1570.897369376658</v>
+        <v>1603.380884295529</v>
       </c>
       <c r="C38" t="n">
-        <v>1201.934852436247</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D38" t="n">
-        <v>843.6691538294961</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E38" t="n">
-        <v>457.8809012312519</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7177,10 +7177,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>2211.283631555913</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U38" t="n">
-        <v>1957.49720944078</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V38" t="n">
-        <v>1957.49720944078</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="W38" t="n">
-        <v>1957.49720944078</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="X38" t="n">
-        <v>1957.49720944078</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="Y38" t="n">
-        <v>1957.49720944078</v>
+        <v>1603.380884295529</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>667.5947762567861</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C39" t="n">
-        <v>493.141746975659</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D39" t="n">
-        <v>344.2073373144078</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E39" t="n">
-        <v>184.9698823089523</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G39" t="n">
         <v>46.89499644164432</v>
@@ -7253,52 +7253,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1740.811377207285</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1505.659268975542</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1251.421912247341</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>1043.570412041808</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>835.8101132768541</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>521.899446869632</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7335,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7356,28 +7356,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.544891781203</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C41" t="n">
-        <v>825.5823748407913</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D41" t="n">
-        <v>467.3166762340408</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E41" t="n">
-        <v>81.52842363579657</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>81.52842363579657</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7411,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2221.559844839383</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1890.496957495812</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1537.728302225698</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>1164.262543964618</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.144731845325</v>
+        <v>774.1232119888066</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7493,49 +7493,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1755.793104690959</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V42" t="n">
-        <v>1755.793104690959</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2303.765562347826</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="C43" t="n">
-        <v>2303.765562347826</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D43" t="n">
-        <v>2303.765562347826</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E43" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>2303.765562347826</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y43" t="n">
-        <v>2303.765562347826</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>934.0197721158181</v>
+        <v>789.1084593466614</v>
       </c>
       <c r="C44" t="n">
-        <v>565.0572551754065</v>
+        <v>789.1084593466614</v>
       </c>
       <c r="D44" t="n">
-        <v>565.0572551754065</v>
+        <v>789.1084593466614</v>
       </c>
       <c r="E44" t="n">
-        <v>565.0572551754065</v>
+        <v>403.3202067484172</v>
       </c>
       <c r="F44" t="n">
-        <v>154.0713503857989</v>
+        <v>403.3202067484172</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7648,10 +7648,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
         <v>762.5916738244546</v>
@@ -7678,22 +7678,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2050.393517622824</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2050.393517622824</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>2050.393517622824</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.62486235271</v>
+        <v>1939.313389647675</v>
       </c>
       <c r="X44" t="n">
-        <v>1324.15910409163</v>
+        <v>1565.847631386595</v>
       </c>
       <c r="Y44" t="n">
-        <v>934.0197721158181</v>
+        <v>1175.708299410783</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
         <v>1637.630816213677</v>
@@ -7754,22 +7754,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>2222.560539990292</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>1994.38007564445</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1759.227967412707</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W45" t="n">
-        <v>1504.990610684506</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>1297.139110478973</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y45" t="n">
         <v>1089.378811714019</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.221686764156</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="C46" t="n">
-        <v>198.221686764156</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="D46" t="n">
-        <v>198.221686764156</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="E46" t="n">
-        <v>198.221686764156</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="F46" t="n">
-        <v>198.221686764156</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="G46" t="n">
-        <v>198.221686764156</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7830,28 +7830,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T46" t="n">
-        <v>379.8701515943957</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U46" t="n">
-        <v>379.8701515943957</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V46" t="n">
-        <v>379.8701515943957</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="W46" t="n">
-        <v>379.8701515943957</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="X46" t="n">
-        <v>379.8701515943957</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.8701515943957</v>
+        <v>198.7261503050039</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,10 +8066,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221345</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>307.2673352605755</v>
+        <v>154.2790145108655</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991544</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221345</v>
       </c>
       <c r="P39" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,7 +11141,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392485</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>415.7693643006697</v>
+        <v>476.3749567889585</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>160.1788698515141</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>88.75603567931698</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>211.7472155662991</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.857852141031628</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>310.3367453265217</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>69.66791759408832</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571424</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.86144769835001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23706,7 +23706,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>223.1616672614506</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>384.4315500594627</v>
       </c>
       <c r="G17" t="n">
-        <v>191.5167505956612</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>21.47633989765124</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>236.1321442655027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>201.7467892527397</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>54.20926963357866</v>
       </c>
       <c r="U20" t="n">
-        <v>157.1415916094663</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G21" t="n">
-        <v>58.38855875532724</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>96.04613812980045</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.5524658530034</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>107.3502322673843</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>293.6792670252674</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.45538403358717</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V25" t="n">
-        <v>197.6910041295854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>9.851320470103616</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>5.849843771782787</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>53.38246657340292</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>110.6873450951858</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24651,7 +24651,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>68.86144769834999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>62.26386036229275</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>13.59573394958713</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>38.65383027744605</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>134.2662799284442</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24885,13 +24885,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>183.209085992355</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>332.3461681423545</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>140.3518789098153</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>76.57988169550526</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>57.98884467712164</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>6.542568037114222</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25125,13 +25125,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>182.3535855893494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>90.64308446791102</v>
       </c>
       <c r="H35" t="n">
-        <v>281.9540038760281</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>190.0766035820378</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.52361544488306</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>59.47194577696655</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25368,7 +25368,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>85.65140315369672</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>235.0279200908331</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>45.007391188654</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>61.42352734555773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>37.69782020388197</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8019569197332</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25684,13 +25684,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>202.9202900636373</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,13 +25763,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>159.3462656328124</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>70.43910215024479</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>163.9575780914522</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>4.090051078196694</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>307.984459437231</v>
+        <v>61.22809163823882</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25918,16 +25918,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>76.57988169550505</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>30.42811604047807</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,7 +26040,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>7.573373630534348</v>
+        <v>7.07395472509495</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26070,19 +26070,19 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>669349.7249154567</v>
+        <v>669349.7249154568</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>669349.7249154567</v>
+        <v>669349.7249154568</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669349.7249154571</v>
+        <v>669349.7249154568</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669349.724915457</v>
+        <v>669349.7249154566</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669349.7249154566</v>
+        <v>669349.7249154567</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669349.724915457</v>
+        <v>669349.7249154566</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>669349.7249154565</v>
+        <v>669349.7249154566</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="F2" t="n">
         <v>317251.3197170584</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="H2" t="n">
         <v>317251.3197170586</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="J2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="K2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="L2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="M2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="N2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="O2" t="n">
+        <v>317251.3197170582</v>
+      </c>
+      <c r="P2" t="n">
         <v>317251.3197170586</v>
-      </c>
-      <c r="H2" t="n">
-        <v>317251.3197170585</v>
-      </c>
-      <c r="I2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="J2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="K2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="L2" t="n">
-        <v>317251.3197170583</v>
-      </c>
-      <c r="M2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="N2" t="n">
-        <v>317251.3197170583</v>
-      </c>
-      <c r="O2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="P2" t="n">
-        <v>317251.3197170584</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007599</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
-        <v>337698.1101336324</v>
+        <v>337698.1101336325</v>
       </c>
       <c r="D4" t="n">
         <v>337698.1101336324</v>
@@ -26435,7 +26435,7 @@
         <v>61729.84584348262</v>
       </c>
       <c r="H4" t="n">
-        <v>61729.84584348262</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="I4" t="n">
         <v>61729.84584348262</v>
@@ -26444,13 +26444,13 @@
         <v>61729.84584348262</v>
       </c>
       <c r="K4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="L4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="M4" t="n">
-        <v>61729.84584348262</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="N4" t="n">
         <v>61729.84584348262</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25876.25148962817</v>
+        <v>25876.25148962823</v>
       </c>
       <c r="C6" t="n">
-        <v>106645.6830211758</v>
+        <v>106645.6830211756</v>
       </c>
       <c r="D6" t="n">
         <v>106645.6830211758</v>
       </c>
       <c r="E6" t="n">
-        <v>-132312.5910308235</v>
+        <v>-139619.8302892196</v>
       </c>
       <c r="F6" t="n">
-        <v>213299.7517481294</v>
+        <v>205992.5124897329</v>
       </c>
       <c r="G6" t="n">
-        <v>213299.7517481294</v>
+        <v>205992.5124897329</v>
       </c>
       <c r="H6" t="n">
-        <v>213299.7517481293</v>
+        <v>205992.5124897331</v>
       </c>
       <c r="I6" t="n">
-        <v>213299.7517481294</v>
+        <v>205992.512489733</v>
       </c>
       <c r="J6" t="n">
-        <v>150239.809149023</v>
+        <v>142932.5698906268</v>
       </c>
       <c r="K6" t="n">
-        <v>213299.7517481294</v>
+        <v>205992.5124897329</v>
       </c>
       <c r="L6" t="n">
-        <v>213299.7517481291</v>
+        <v>205992.5124897329</v>
       </c>
       <c r="M6" t="n">
-        <v>127281.2179280534</v>
+        <v>119973.9786696569</v>
       </c>
       <c r="N6" t="n">
-        <v>213299.7517481291</v>
+        <v>205992.512489733</v>
       </c>
       <c r="O6" t="n">
-        <v>213299.7517481292</v>
+        <v>205992.5124897327</v>
       </c>
       <c r="P6" t="n">
-        <v>213299.7517481293</v>
+        <v>205992.5124897331</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26773,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.5729191572185</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>291.2607469969722</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>222.0001710086764</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>37.69799725872717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>345.7144348824455</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>48.19691479848534</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>102.3839263217581</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>127.8627523801188</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>264.2850375838066</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>305.4078241810982</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>123.0556013633288</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>26.11494821561502</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33912,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33982,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T40" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N3" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35020,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q12" t="n">
         <v>152.98832074971</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093429</v>
@@ -35734,7 +35734,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35977,7 +35977,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255823</v>
+        <v>402.8027153709872</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7110456222515</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36214,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36454,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608305</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37557,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37636,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709872</v>
       </c>
       <c r="P39" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37718,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37879,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675625</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>453.3206074199177</v>
+        <v>513.9261999082065</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
